--- a/tools/excel/HDS/hds-v2.xlsx
+++ b/tools/excel/HDS/hds-v2.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/HDS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tarkadia\projects\intuitem\ciso-assistant-community\tools\excel\HDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EA4345-FE8C-8541-85D7-050EC0EC5C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF76FF1-03DE-4136-8B6D-27279EEBA7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="3700" windowWidth="26840" windowHeight="15940" xr2:uid="{16ECAE7A-C0DA-E141-9634-76BF9152715F}"/>
+    <workbookView xWindow="22040" yWindow="-9990" windowWidth="27990" windowHeight="14630" activeTab="1" xr2:uid="{16ECAE7A-C0DA-E141-9634-76BF9152715F}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
     <sheet name="HDS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HDS!$A$1:$E$90</definedName>
-    <definedName name="_ftn1" localSheetId="1">HDS!$A$93</definedName>
-    <definedName name="_ftnref1" localSheetId="1">HDS!$E$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HDS!$A$1:$E$83</definedName>
+    <definedName name="_ftn1" localSheetId="1">HDS!$A$86</definedName>
+    <definedName name="_ftnref1" localSheetId="1">HDS!$E$71</definedName>
   </definedNames>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
@@ -529,7 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -544,16 +544,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -570,7 +564,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -888,17 +882,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA7E42E-AA3B-6348-8512-4B7B73A984B3}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="130.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>110</v>
       </c>
@@ -906,15 +900,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -922,7 +916,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -930,7 +924,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -938,7 +932,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -946,7 +940,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -954,7 +948,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -962,7 +956,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -970,7 +964,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -978,7 +972,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -986,7 +980,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -994,7 +988,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -1002,7 +996,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -1020,22 +1014,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A74EB2-E0D1-6047-A547-D24951F96A44}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="3"/>
-    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="3" customWidth="1"/>
+    <col min="1" max="2" width="10.796875" style="3"/>
+    <col min="3" max="3" width="8.69921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.296875" style="3" customWidth="1"/>
     <col min="5" max="5" width="113" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="3"/>
+    <col min="6" max="16384" width="10.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>132</v>
       </c>
@@ -1052,7 +1046,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2">
         <v>1</v>
@@ -1065,171 +1059,195 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
+    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
       <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1239,70 +1257,88 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="6">
-        <v>3</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="6">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="6">
-        <v>3</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -1312,10 +1348,10 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
@@ -1325,62 +1361,64 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="2">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
       <c r="B28" s="2">
-        <v>3</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -1390,90 +1428,90 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="2">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="2">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
       <c r="B33" s="2">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
       <c r="B36" s="2">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -1483,51 +1521,49 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="2">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
       <c r="B39" s="2">
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B40" s="2">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E40" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -1537,49 +1573,53 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="2">
-        <v>2</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B43" s="2">
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
       <c r="B44" s="2">
-        <v>2</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>3</v>
       </c>
@@ -1589,23 +1629,23 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B46" s="2">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>3</v>
       </c>
@@ -1615,10 +1655,10 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>3</v>
       </c>
@@ -1628,189 +1668,191 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
       <c r="B49" s="2">
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B50" s="2">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B51" s="2">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="2">
-        <v>2</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B53" s="2">
-        <v>2</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="2">
-        <v>2</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="2">
-        <v>2</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B56" s="2">
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B57" s="2">
-        <v>2</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B58" s="2">
-        <v>2</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
       <c r="B59" s="2">
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B60" s="2">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="2">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>3</v>
       </c>
@@ -1818,14 +1860,14 @@
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
@@ -1833,14 +1875,14 @@
         <v>1</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
@@ -1848,40 +1890,40 @@
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="2">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B66" s="2">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E66" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>3</v>
       </c>
@@ -1891,10 +1933,10 @@
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
@@ -1904,10 +1946,10 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>3</v>
       </c>
@@ -1915,44 +1957,38 @@
         <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
       <c r="B70" s="2">
         <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D70" s="2"/>
-      <c r="E70" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B71" s="2">
-        <v>1</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E71" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>3</v>
       </c>
@@ -1962,10 +1998,10 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
@@ -1975,23 +2011,25 @@
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B74" s="2">
-        <v>2</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>3</v>
       </c>
@@ -2001,49 +2039,47 @@
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B76" s="2">
-        <v>1</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B77" s="2">
-        <v>1</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="E77" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2"/>
       <c r="B78" s="2">
-        <v>2</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="D78" s="2"/>
-      <c r="E78" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
@@ -2053,51 +2089,49 @@
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B80" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B81" s="2">
-        <v>1</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>84</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B82" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>3</v>
       </c>
@@ -2107,143 +2141,17 @@
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" s="2">
-        <v>2</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2">
-        <v>1</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="2">
-        <v>2</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="2">
-        <v>3</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" s="2">
-        <v>3</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" s="2">
-        <v>3</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="2">
-        <v>2</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="4"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="5"/>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E90" xr:uid="{46A74EB2-E0D1-6047-A547-D24951F96A44}"/>
-  <mergeCells count="35">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-  </mergeCells>
+  <autoFilter ref="A1:E83" xr:uid="{46A74EB2-E0D1-6047-A547-D24951F96A44}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>